--- a/data/raw_data/ManyPrimates_mp1_datasheet_TBRI.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_TBRI.xlsx
@@ -5,11 +5,16 @@
   <sheets>
     <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_430CEA7C_31F8_41CC_8FD6_9E9B22D2C8DF_.wvu.FilterData">Data!$A$1:$Z$1000</definedName>
+  </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{430CEA7C-31F8-41CC-8FD6-9E9B22D2C8DF}" name="Filter 2"/>
+  </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgQ2GdAZBk8SkyDG39qxC2RVZ4yXw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhdo/L5sBgs65kbWPdkeeXoNZ6HRA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -5409,10 +5414,10 @@
         <v>2.0</v>
       </c>
       <c r="K92" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="L92" s="15">
-        <v>1.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="L92" s="16">
+        <v>10.0</v>
       </c>
       <c r="M92" s="15" t="s">
         <v>23</v>
@@ -5462,10 +5467,10 @@
         <v>2.0</v>
       </c>
       <c r="K93" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="L93" s="15">
-        <v>2.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="L93" s="16">
+        <v>11.0</v>
       </c>
       <c r="M93" s="15" t="s">
         <v>23</v>
@@ -5514,11 +5519,11 @@
       <c r="J94" s="15">
         <v>2.0</v>
       </c>
-      <c r="K94" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="L94" s="15">
-        <v>3.0</v>
+      <c r="K94" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="L94" s="16">
+        <v>12.0</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>23</v>
@@ -5567,11 +5572,11 @@
       <c r="J95" s="15">
         <v>2.0</v>
       </c>
-      <c r="K95" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="L95" s="15">
-        <v>4.0</v>
+      <c r="K95" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="L95" s="16">
+        <v>13.0</v>
       </c>
       <c r="M95" s="15" t="s">
         <v>28</v>
@@ -5620,11 +5625,11 @@
       <c r="J96" s="15">
         <v>2.0</v>
       </c>
-      <c r="K96" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="L96" s="15">
+      <c r="K96" s="16">
         <v>5.0</v>
+      </c>
+      <c r="L96" s="16">
+        <v>14.0</v>
       </c>
       <c r="M96" s="15" t="s">
         <v>28</v>
@@ -5673,11 +5678,11 @@
       <c r="J97" s="15">
         <v>2.0</v>
       </c>
-      <c r="K97" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="L97" s="15">
-        <v>6.0</v>
+      <c r="K97" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="L97" s="16">
+        <v>15.0</v>
       </c>
       <c r="M97" s="15" t="s">
         <v>28</v>
@@ -5726,11 +5731,11 @@
       <c r="J98" s="15">
         <v>2.0</v>
       </c>
-      <c r="K98" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="L98" s="15">
-        <v>7.0</v>
+      <c r="K98" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="L98" s="16">
+        <v>16.0</v>
       </c>
       <c r="M98" s="15" t="s">
         <v>25</v>
@@ -5779,11 +5784,11 @@
       <c r="J99" s="15">
         <v>2.0</v>
       </c>
-      <c r="K99" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="L99" s="15">
-        <v>8.0</v>
+      <c r="K99" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="L99" s="16">
+        <v>17.0</v>
       </c>
       <c r="M99" s="15" t="s">
         <v>25</v>
@@ -5832,11 +5837,11 @@
       <c r="J100" s="15">
         <v>2.0</v>
       </c>
-      <c r="K100" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="L100" s="15">
-        <v>9.0</v>
+      <c r="K100" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="L100" s="16">
+        <v>18.0</v>
       </c>
       <c r="M100" s="15" t="s">
         <v>25</v>
@@ -6755,6 +6760,22 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{430CEA7C-31F8-41CC-8FD6-9E9B22D2C8DF}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$Z$1000">
+        <filterColumn colId="3">
+          <filters>
+            <filter val="28806_TBR"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="103570469"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+  </customSheetViews>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
